--- a/data/trans_dic/P23_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede</t>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>2,42%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>5,21%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>7,37%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,2%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>5,07%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>7,03%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,6%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 7,01</t>
+          <t>3,09; 7,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,11</t>
+          <t>2,53; 7,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,65</t>
+          <t>2,96; 8,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,7</t>
+          <t>4,38; 9,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,96</t>
+          <t>4,94; 8,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,57</t>
+          <t>6,24; 11,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,76</t>
+          <t>4,27; 7,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,43</t>
+          <t>1,57; 3,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,75</t>
+          <t>3,96; 7,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,67</t>
+          <t>3,97; 8,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,22</t>
+          <t>5,73; 9,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,37</t>
+          <t>5,15; 8,62</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 6,75</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 4,86</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 6,95</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 7,82</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 8,48</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 9,23</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>8,05%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
         <is>
           <t>3,8%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,98%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>8,37%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8,19%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,22</t>
+          <t>2,28; 6,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,66</t>
+          <t>2,95; 7,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,53</t>
+          <t>2,04; 5,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 13,22</t>
+          <t>2,49; 8,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 10,21</t>
+          <t>5,44; 13,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,51</t>
+          <t>5,53; 13,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,36</t>
+          <t>4,79; 10,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 12,46</t>
+          <t>1,96; 4,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,35</t>
+          <t>3,01; 6,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,33</t>
+          <t>3,64; 8,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,24</t>
+          <t>4,68; 12,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,28</t>
+          <t>4,99; 12,26</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 7,41</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 5,45</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 5,02</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 7,23</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,11; 11,4</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 11,34</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>4,6%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>3,19%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,89%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 8,81</t>
+          <t>1,76; 9,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 9,16</t>
+          <t>2,1; 10,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,13</t>
+          <t>0,51; 6,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,07; 13,43</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 7,35</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 7,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 8,29</t>
+          <t>1,6; 8,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>2,3; 9,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 9,15</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 7,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 6,88</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,64; 7,33</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 5,71</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 7,27</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 8,11</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 5,65</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 8,87</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,15%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>7,51%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,17%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3,6%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,37%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>7,33%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,61</t>
+          <t>3,2; 5,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 5,99</t>
+          <t>3,23; 6,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,23</t>
+          <t>2,79; 5,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 9,13</t>
+          <t>4,33; 7,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,66</t>
+          <t>5,49; 8,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,76</t>
+          <t>6,5; 10,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,88</t>
+          <t>4,85; 7,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,35</t>
+          <t>2,16; 3,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,22</t>
+          <t>3,94; 6,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 4,58</t>
+          <t>4,28; 6,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,64</t>
+          <t>6,05; 9,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,78</t>
+          <t>5,6; 8,65</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 6,29</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 4,51</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 5,42</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 6,98</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,23; 8,59</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 9,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>78141</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>67157</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>75811</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>106458</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15239</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>19529</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>105768</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>44140</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>96468</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>104129</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17489</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15712</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>183909</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>111297</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>172279</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>210587</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>32728</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>35240</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50880; 116942</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>41522; 120139</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48381; 138959</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>71383; 153456</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11282; 19556</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>14209; 25767</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>76590; 137963</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28701; 65686</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>71956; 128873</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71515; 146124</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13600; 22479</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12172; 20370</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>143713; 232413</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>81237; 168507</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>136651; 239802</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>162101; 268235</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>27153; 39497</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>29989; 42809</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>50781</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>62937</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>44963</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64811</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6198</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6270</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>97525</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41081</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>61746</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>78078</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5247</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5067</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>148306</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>104018</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>106709</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>142889</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>11445</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11336</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30889; 82345</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40601; 105358</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27737; 68850</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34535; 123679</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3897; 9716</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4037; 9588</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>66441; 147099</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26654; 64289</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>41338; 85999</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>50114; 112319</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3048; 7945</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3259; 8014</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>110812; 203247</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>76579; 149209</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>78784; 137292</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>103521; 199743</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8365; 15602</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>8323; 15696</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17757</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21531</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8322</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27943</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16333</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19306</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18846</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12620</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>34091</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>40837</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>27167</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>40563</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7317; 37609</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8898; 42721</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2144; 25779</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12789; 55985</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6550; 35854</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9323; 37243</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9436; 37669</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3350; 29874</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>17020; 59886</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>23985; 67207</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13262; 46810</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>22096; 73515</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>146679</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>151625</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>129095</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>199213</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21437</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>25798</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>219627</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>104528</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>177060</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>194827</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>22736</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20778</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>366305</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>256153</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>306155</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>394039</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>44174</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>46577</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>109509; 190450</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>111050; 210615</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>95137; 189424</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>148643; 268496</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>16459; 26665</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19531; 32530</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>174180; 278433</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>77799; 137704</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>141981; 222031</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>153539; 246405</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>18299; 27949</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16888; 26086</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>305320; 440781</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>205370; 317506</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>254895; 379819</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>327003; 490379</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>37546; 51747</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>39113; 55510</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
